--- a/Riot Watcher lib/na1_challenger_lanes.xlsx
+++ b/Riot Watcher lib/na1_challenger_lanes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\compute\Desktop\Riot Games dev work\position_presence\Riot Watcher lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B783C047-146D-4362-AAE6-C630D6BFC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD0681-30BE-41B1-84DF-946FD9A9D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId3"/>
-    <pivotCache cacheId="34" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1007,7 +1007,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1093,53 +1093,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2152,16 +2113,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338136</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61911</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6474,7 +6435,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBCB3E6B-8F9D-4B28-A08D-FA1E22A0C172}" name="PivotTable13" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBCB3E6B-8F9D-4B28-A08D-FA1E22A0C172}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A14:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -6526,7 +6487,7 @@
     <dataField name="Average of win_rate" fld="4" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -6547,7 +6508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3B8A95C-481D-464D-B015-359A03B17169}" name="PivotTable10" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3B8A95C-481D-464D-B015-359A03B17169}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6936,13 +6897,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -12369,17 +12331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEBC916-267F-4E3D-B9DA-1402B5C3C6F7}">
-  <dimension ref="A3:C21"/>
+  <dimension ref="A3:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A8"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="4" click="1" r:id="rId2">
-        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="3" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12387,9 +12342,10 @@
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -12400,7 +12356,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -12410,8 +12366,12 @@
       <c r="C4" s="5">
         <v>0.20666666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <f>ROUND(C4-20%,4)</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -12421,8 +12381,12 @@
       <c r="C5" s="5">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D8" si="0">ROUND(C5-20%,4)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12432,8 +12396,12 @@
       <c r="C6" s="5">
         <v>0.23333333333333334</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -12443,8 +12411,12 @@
       <c r="C7" s="5">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -12454,8 +12426,12 @@
       <c r="C8" s="5">
         <v>0.13333333333333333</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.6699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>317</v>
       </c>
@@ -12463,7 +12439,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -12471,7 +12447,7 @@
         <v>0.57924528301886802</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
